--- a/fire_route.xlsx
+++ b/fire_route.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yung-li\Desktop\ff\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322A6978-2B49-4D51-821A-828F2D104676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF8B7D-5281-4E7C-8996-F8C3753FB0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>travel time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -376,7 +372,7 @@
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,11 +382,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -400,11 +393,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -415,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -426,7 +416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -437,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -448,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -459,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -470,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -481,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -492,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
